--- a/folder_test/formato_estandar_una_hoja.xlsx
+++ b/folder_test/formato_estandar_una_hoja.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Escritorio\idm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67520D78-5EDC-47C8-8202-8367CBCDC95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596D9208-EE54-440D-A559-0B4F376578B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16860" xr2:uid="{2FC6E42C-2136-4FEA-9A66-F3C3317047E6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cotizacion" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">cotizacion!$A$1:$I$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t xml:space="preserve">Fecha </t>
   </si>
@@ -112,6 +112,33 @@
   </si>
   <si>
     <t>RFC: GUTA580927-QW6</t>
+  </si>
+  <si>
+    <t>hojas</t>
+  </si>
+  <si>
+    <t>plastico</t>
+  </si>
+  <si>
+    <t>acero</t>
+  </si>
+  <si>
+    <t>aluminio</t>
+  </si>
+  <si>
+    <t>tijeras</t>
+  </si>
+  <si>
+    <t>Dlls</t>
+  </si>
+  <si>
+    <t>medtronic</t>
+  </si>
+  <si>
+    <t>calle sonora colonia lomba bonita #2716</t>
+  </si>
+  <si>
+    <t>jorge vera ing</t>
   </si>
 </sst>
 </file>
@@ -940,7 +967,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H6" sqref="H6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1014,14 +1041,27 @@
       <c r="I5" s="47"/>
     </row>
     <row r="6" spans="1:14" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="10">
+        <f ca="1">TODAY()</f>
+        <v>45735</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1234</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="D6" s="26"/>
-      <c r="E6" s="23"/>
+      <c r="E6" s="23" t="s">
+        <v>31</v>
+      </c>
       <c r="F6" s="24"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="27"/>
+      <c r="G6" s="9">
+        <v>2345</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>32</v>
+      </c>
       <c r="I6" s="28"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1064,45 +1104,70 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="51"/>
+      <c r="A9" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
-      <c r="G9" s="12"/>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
       <c r="H9" s="7">
         <f t="shared" ref="H9:H32" si="0">F9*G9</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="42"/>
+      <c r="A10" s="42" t="s">
+        <v>25</v>
+      </c>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="6">
+        <v>5</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
       <c r="H10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="42"/>
+      <c r="A11" s="42" t="s">
+        <v>26</v>
+      </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="6">
+        <v>6</v>
+      </c>
+      <c r="G11" s="7">
+        <v>3</v>
+      </c>
       <c r="H11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="42"/>
@@ -1119,18 +1184,26 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="42"/>
+      <c r="A13" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="6">
+        <v>7</v>
+      </c>
+      <c r="G13" s="7">
+        <v>4</v>
+      </c>
       <c r="H13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="42"/>
@@ -1161,18 +1234,26 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="42"/>
+      <c r="A16" s="42" t="s">
+        <v>28</v>
+      </c>
       <c r="B16" s="42"/>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="6">
+        <v>8</v>
+      </c>
+      <c r="G16" s="7">
+        <v>5</v>
+      </c>
       <c r="H16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="42"/>
@@ -1414,7 +1495,7 @@
       </c>
       <c r="H33" s="40">
         <f>SUM(H9:H31)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I33" s="40"/>
     </row>
@@ -1450,7 +1531,7 @@
       </c>
       <c r="H36" s="32">
         <f>H33*0.16</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I36" s="33"/>
     </row>
@@ -1465,7 +1546,7 @@
       </c>
       <c r="H37" s="34">
         <f>H33+H36</f>
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="I37" s="35"/>
     </row>
